--- a/Team_C_Algorithm_Project/Assets/07.DialogueSystem/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Team_C_Algorithm_Project/Assets/07.DialogueSystem/Resources/ExcelDB/DialogueDB.xlsx
@@ -536,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1258,6 +1258,146 @@
         <v>46</v>
       </c>
     </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Team_C_Algorithm_Project/Assets/07.DialogueSystem/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Team_C_Algorithm_Project/Assets/07.DialogueSystem/Resources/ExcelDB/DialogueDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="55">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,50 +115,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">지구에서 몇 광년 떨어진 곳에 호호행성이 있었습니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호호행성에는 7개의 호호 부족이 살고 있었지요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그들은 서로를 도우며 행복하게 살고 있었답니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하지만 어느날</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하늘이 검게 물들었고 하늘에서는 이상한 물체들이 내려오기 시작했습ㄴ다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 이상한 물체들에서 생명체들이 내렸습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">그들은 호호 행성에 기지를 만들고 주황 호호족에게 자신들을 소개했어요 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신들은 인간이며 자원이 부족해 인간들이 힘들게 살고 있으며 그로 인해 호호족에 있는 자원을 조금 가져가고 싶다고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>착한 호호족들은 그들의 안타까운 사연을 듣고 행성을 해치지 않을 정도로 허락해 주었어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 인간들은 욕심쟁이였고 숲은 빠르게 파괴되었어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호호족은 그 사실을 어렴풋이 눈치채고 호호족에서 가장 용감한 호리를 보내 인간들을 감시하기로 했어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">호리야 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어쩌면 그들에게 처음부터 자원을 주면 안됬다는 생각이 드는구나…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>호리 니가 인간들을 감시하여 무엇을 꾸미고 있는지 알려주렴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,6 +155,77 @@
   </si>
   <si>
     <t>하지만 만약 조금이라도 우리 행성과 부족에게 해가 될 낌세가 보인다면 바로 나에게 말해주렴….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">지구에서 몇 광년 떨어진 곳에 아름다운 호호행성이 있었습니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호호행성의 하늘에 무언가가 다가왔습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호호행성에는 7개의 호호 부족이 서로를 도우며 행복하게 살고 있었지요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그것들은 크고 검었으며 이상한 소리를 내며 점점 호호행성으로 다가왔지요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 이상한 물체들에서 생명체들이 내렸습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 생명체들은 자신들을 인간이라고 소개하며 호호족들에게 친철하게 말을 걸었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 아직 심증만 있었기 때문에 주황호호 부족장은 인간들을 감시하기로 마음을 먹었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음씨 착한 호호족들은 7부족끼리 회의를 열고 인간들을 환영했어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 아름다운 호호 행성을 보고 연구를 하고 싶다고 했습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그들은 자신들이 먼 행성에서 온 과학자이며 연구를 하기위해 우주를 돌아다니다 호호 행성을 반견했고 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신들과 다른 행성이 신기하다고 하며 말이죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 누가 알았을까요 인간들이 사실은 자신들의 행성자원을 훔치기 위해 이곳에 왔다는 것을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호호 부족들도 모르는 사이 조금씩 하지만 빠르게 행성은 망가지기 시작했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 이내 주황 호호 부족장이 인간들을 의심하기 시작했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">주황 호호 부족장은 인간들이 온 이후 숲속의 동물들이 점점 사라지고 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공기가 달라졌다는 것을 눈치챘습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 주황 부족에서 가장 용감한 호리를 보내 인간들이 무엇을 꾸미고 있는지 확인하기로 했지요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩌면 그들에게 처음부터 그들을 이 행성에 들이는게 안됬다는 생각이 들어….</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,15 +565,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="57.375" customWidth="1"/>
+    <col min="4" max="4" width="89.25" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="25.125" customWidth="1"/>
     <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
@@ -597,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
@@ -629,7 +656,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
@@ -661,7 +688,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
@@ -693,7 +720,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
@@ -725,7 +752,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>17</v>
@@ -757,7 +784,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
@@ -789,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
@@ -821,7 +848,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
@@ -853,7 +880,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
@@ -885,7 +912,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>17</v>
@@ -917,7 +944,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>17</v>
@@ -949,10 +976,10 @@
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>25</v>
@@ -981,10 +1008,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>17</v>
@@ -1013,10 +1040,10 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>17</v>
@@ -1045,10 +1072,10 @@
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>17</v>
@@ -1077,10 +1104,10 @@
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>17</v>
@@ -1109,10 +1136,10 @@
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>17</v>
@@ -1141,10 +1168,10 @@
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>17</v>
@@ -1173,7 +1200,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>21</v>
@@ -1205,7 +1232,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>22</v>
@@ -1237,10 +1264,10 @@
         <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>17</v>
@@ -1249,141 +1276,366 @@
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>-100</v>
+        <v>21</v>
       </c>
       <c r="I22" s="1">
         <v>-100</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>22</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>23</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>24</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>25</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>26</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>27</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>28</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>29</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-100</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>30</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-100</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="I32" s="1">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="I33" s="1">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="I34" s="1">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="I35" s="1">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="I36" s="1">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
